--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>0.5202848837009999</v>
+        <v>0.1246784938601111</v>
       </c>
       <c r="R2">
-        <v>3.121709302205999</v>
+        <v>1.122106444741</v>
       </c>
       <c r="S2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="T2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H3">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>0.4237037711316667</v>
+        <v>0.1605536347605555</v>
       </c>
       <c r="R3">
-        <v>2.54222262679</v>
+        <v>1.444982712845</v>
       </c>
       <c r="S3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="T3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H4">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -688,22 +685,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.001429302468</v>
+        <v>0.000541604116</v>
       </c>
       <c r="R4">
-        <v>0.008575814808</v>
+        <v>0.004874437044</v>
       </c>
       <c r="S4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="T4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H5">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,90 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>0.212173379869</v>
+        <v>0.01968698304166667</v>
       </c>
       <c r="R5">
-        <v>0.8486935194759999</v>
+        <v>0.11812189825</v>
       </c>
       <c r="S5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="T5">
-        <v>0.1300810984409417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.06733099999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.134662</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.02332</v>
-      </c>
-      <c r="O6">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="P6">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="Q6">
-        <v>0.0005233863066666666</v>
-      </c>
-      <c r="R6">
-        <v>0.003140317839999999</v>
-      </c>
-      <c r="S6">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="T6">
-        <v>0.0004813233336965963</v>
+        <v>0.04391009079921059</v>
       </c>
     </row>
   </sheetData>
